--- a/output/drupal/drupal-bug-fiaf.xlsx
+++ b/output/drupal/drupal-bug-fiaf.xlsx
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>php:S1848</t>
+          <t>B-php:S1848</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -542,7 +542,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>php:S836</t>
+          <t>B-php:S836</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -588,7 +588,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>php:S1764</t>
+          <t>B-php:S1764</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -634,7 +634,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>javascript:S2259</t>
+          <t>B-javascript:S2259</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -680,7 +680,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>php:S2201</t>
+          <t>B-php:S2201</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -726,7 +726,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Web:PageWithoutTitleCheck</t>
+          <t>B-Web:PageWithoutTitleCheck</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -772,7 +772,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>php:S3699</t>
+          <t>B-php:S3699</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -818,7 +818,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>javascript:S2583</t>
+          <t>B-javascript:S2583</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -864,7 +864,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>javascript:S905</t>
+          <t>B-javascript:S905</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -910,7 +910,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>php:S3923</t>
+          <t>B-php:S3923</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -956,7 +956,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>javascript:S2189</t>
+          <t>B-javascript:S2189</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1002,7 +1002,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>javascript:S3403</t>
+          <t>B-javascript:S3403</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1048,7 +1048,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>php:S1763</t>
+          <t>B-php:S1763</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1094,7 +1094,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>javascript:S2137</t>
+          <t>B-javascript:S2137</t>
         </is>
       </c>
       <c r="B15" t="n">
